--- a/assets/cruling/test.xlsx
+++ b/assets/cruling/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\project\assets\cruling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF1FB31E-DC9D-4FF4-BDD4-C74946AC7F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D2FCB1-31E5-4278-B278-0E7A99815C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27840" yWindow="1050" windowWidth="21600" windowHeight="11235" xr2:uid="{C7FD7F38-57E3-413A-A442-6803ECF5562C}"/>
   </bookViews>
@@ -31,6 +31,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+  <si>
+    <t>test</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,14 +388,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55828884-3670-4966-AD0F-B1BFDC7E0F8E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>